--- a/NewArrivals/micrositeData.xlsx
+++ b/NewArrivals/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,10 +83,10 @@
     <t>virtual_cabitest19</t>
   </si>
   <si>
-    <t>sshinde</t>
-  </si>
-  <si>
-    <t>C@bi$ush5</t>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>cabiautomation</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +519,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
     <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NewArrivals/micrositeData.xlsx
+++ b/NewArrivals/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,13 +80,13 @@
     <t>https://pushofbiz.cliotest.com/login.php</t>
   </si>
   <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
     <t>automation</t>
   </si>
   <si>
     <t>cabiautomation</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -507,13 +507,13 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
